--- a/Results/Tables/Dunn_Indices.xlsx
+++ b/Results/Tables/Dunn_Indices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.676954776924397e-49</v>
+        <v>9.109176944756579e-106</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.036852535332149e-46</v>
+        <v>7.599226413395679e-95</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.488074042074457e-33</v>
+        <v>3.941771146316326e-72</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.917673351304265e-29</v>
+        <v>7.181733839005878e-62</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -633,7 +633,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.660684282500409e-10</v>
+        <v>1.049678895551109e-49</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -669,16 +669,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Left_Wing</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Moderate_Right_A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>3.119559774874527e-08</v>
+        <v>2.367887688719822e-30</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -710,11 +710,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Left_Wing</t>
+          <t>Progressivism</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.84552483152277e-08</v>
+        <v>1.552733310161704e-18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -741,16 +741,16 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Centre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Left_Wing</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
       <c r="F9" t="n">
-        <v>1.578117613730218e-06</v>
+        <v>1.422297423393931e-12</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0007715587703722347</v>
+        <v>2.901164819806928e-08</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -822,11 +822,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01488705211887492</v>
+        <v>1.213067329100971e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -858,11 +858,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.02910672277636093</v>
+        <v>0.0002440668834216496</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -894,9 +894,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.2960215528837784</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0.0008274975439957211</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>Indices</t>
@@ -906,7 +910,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -917,16 +921,16 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Left_Wing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Progressivism</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.2474852997636908</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -938,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -949,16 +953,16 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Left_Wing</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Progressivism</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9678293659583344</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -970,7 +974,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -981,12 +985,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Centre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1002,7 +1006,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1022,7 +1026,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.950930520512363e-28</v>
+        <v>2.896743336305122e-32</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1038,7 +1042,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1058,7 +1062,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.319155199094881e-27</v>
+        <v>1.456440676395433e-20</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1074,7 +1078,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1085,7 +1089,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1094,7 +1098,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7.129770968838794e-10</v>
+        <v>1.956359197278251e-17</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1110,7 +1114,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1130,7 +1134,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7.290613413305297e-10</v>
+        <v>3.723206417515722e-16</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1146,7 +1150,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1157,7 +1161,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Centre</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1166,7 +1170,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.560664100478768e-07</v>
+        <v>7.617767577727705e-10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1182,7 +1186,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1198,11 +1202,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0001146551463925965</v>
+        <v>9.094107893605399e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1218,7 +1222,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1234,15 +1238,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0008216098844753554</v>
+        <v>0.02288677118962208</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1254,7 +1258,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1265,16 +1269,16 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Left_Wing</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.2993229263694721</v>
+        <v>0.2368198287466294</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1286,7 +1290,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1297,16 +1301,16 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Centre</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Left_Wing</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8039656600041465</v>
+        <v>0.3964073165411202</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1318,7 +1322,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1329,7 +1333,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Left_Wing</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1338,7 +1342,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.4459739893187165</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -1350,7 +1354,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1366,7 +1370,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1382,7 +1386,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1398,7 +1402,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1414,7 +1418,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1425,12 +1429,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Left_Wing</t>
+          <t>Centre</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1446,7 +1450,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1462,7 +1466,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1478,7 +1482,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1510,7 +1514,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1521,16 +1525,16 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Progressivism</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Progressivism</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.816558852804604e-52</v>
+        <v>6.378349551480866e-99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1546,7 +1550,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1557,16 +1561,16 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Moderate_Right_B</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Progressivism</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
       <c r="F33" t="n">
-        <v>8.186862773415887e-48</v>
+        <v>1.013741139705846e-97</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1582,7 +1586,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1598,11 +1602,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7.652043729427605e-33</v>
+        <v>1.174659160928888e-77</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1618,7 +1622,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1634,11 +1638,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.177013321284643e-32</v>
+        <v>9.346008607505232e-75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1654,7 +1658,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1674,7 +1678,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.471931280741885e-18</v>
+        <v>4.493549629927952e-61</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1690,7 +1694,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1710,7 +1714,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.487913971182108e-14</v>
+        <v>1.135590058547119e-46</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1726,7 +1730,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1746,7 +1750,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6.584881772026653e-09</v>
+        <v>4.471903581450439e-20</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1762,7 +1766,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1782,7 +1786,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.369668181620207e-07</v>
+        <v>2.201069475614343e-17</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1798,7 +1802,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1818,11 +1822,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.005760291006936659</v>
+        <v>6.173462209792396e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1834,7 +1838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1845,20 +1849,20 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Moderate_Right_B</t>
+          <t>Right_Wing_Libertarian</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.02044546783199364</v>
+        <v>0.0003735351668127768</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1870,7 +1874,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1886,13 +1890,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8054394729704154</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>0.001544133457740707</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>Indices</t>
@@ -1902,7 +1910,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1913,18 +1921,22 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Left_Wing</t>
+          <t>Moderate_Right_A</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Progressivism</t>
+          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>0.01518887665027383</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Indices</t>
@@ -1934,7 +1946,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1945,12 +1957,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Centre</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1966,7 +1978,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1977,12 +1989,12 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Moderate_Right_A</t>
+          <t>Left_Wing</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Right_Wing_Libertarian</t>
+          <t>Progressivism</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1998,7 +2010,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ballotage</t>
+          <t>Generales</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2022,1570 +2034,6 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>9.109176944756579e-106</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7.599226413395679e-95</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3.941771146316326e-72</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7.181733839005878e-62</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1.049678895551109e-49</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2.367887688719822e-30</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1.552733310161704e-18</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1.422297423393931e-12</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>2.901164819806928e-08</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1.213067329100971e-06</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0002440668834216496</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0008274975439957211</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>0.2474852997636908</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9678293659583344</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Indice_Conservadurismo</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>2.896743336305122e-32</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>1.456440676395433e-20</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1.956359197278251e-17</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>3.723206417515722e-16</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>7.617767577727705e-10</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>9.094107893605399e-06</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>0.02288677118962208</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>0.2368198287466294</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0.3964073165411202</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0.4459739893187165</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Indice_Positividad</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>6.378349551480866e-99</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>1.013741139705846e-97</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>1.174659160928888e-77</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>9.346008607505232e-75</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>4.493549629927952e-61</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1.135590058547119e-46</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>4.471903581450439e-20</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2.201069475614343e-17</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>6.173462209792396e-05</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0003735351668127768</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.001544133457740707</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0.01518887665027383</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Centre</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Moderate_Right_A</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Left_Wing</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Progressivism</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Indices</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Generales</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Indice_Progresismo</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Moderate_Right_B</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Right_Wing_Libertarian</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
         <is>
           <t>Indices</t>
         </is>
